--- a/data/提交表格数据/TJ5/午塘里6号桥/午塘里6号桥/午塘里6号桥.xlsx
+++ b/data/提交表格数据/TJ5/午塘里6号桥/午塘里6号桥/午塘里6号桥.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\C#lianxi\JJBG\excelFile\TJ5\午塘里6号桥\午塘里6号桥\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\excel2db\data\提交表格数据\TJ5\午塘里6号桥\午塘里6号桥\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92284F22-C53B-4612-A0A5-67ADF2F518D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="14856"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$156</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="370">
   <si>
     <t>单位工程名称</t>
   </si>
@@ -1132,17 +1133,20 @@
   <si>
     <t>午塘里6号桥</t>
     <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>零号清单编码1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1162,7 +1166,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1171,7 +1175,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1179,7 +1183,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1187,7 +1191,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Cambria"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -1196,7 +1200,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1205,7 +1209,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1213,7 +1217,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1221,7 +1225,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1230,7 +1234,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1238,7 +1242,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1247,7 +1251,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1255,7 +1259,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1264,7 +1268,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1272,7 +1276,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1281,7 +1285,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1289,7 +1293,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1298,7 +1302,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1306,14 +1310,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1655,27 +1659,27 @@
     </xf>
   </cellXfs>
   <cellStyles count="21">
-    <cellStyle name="标题 1 2" xfId="5"/>
-    <cellStyle name="标题 2 2" xfId="9"/>
-    <cellStyle name="标题 3 2" xfId="10"/>
-    <cellStyle name="标题 4 2" xfId="12"/>
-    <cellStyle name="标题 5" xfId="2"/>
-    <cellStyle name="差 2" xfId="13"/>
+    <cellStyle name="好 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="差 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="14"/>
-    <cellStyle name="常规 2 2" xfId="7"/>
-    <cellStyle name="常规 3" xfId="15"/>
-    <cellStyle name="好 2" xfId="4"/>
-    <cellStyle name="汇总 2" xfId="3"/>
-    <cellStyle name="计算 2" xfId="1"/>
-    <cellStyle name="检查单元格 2" xfId="16"/>
-    <cellStyle name="解释性文本 2" xfId="17"/>
-    <cellStyle name="警告文本 2" xfId="11"/>
-    <cellStyle name="链接单元格 2" xfId="18"/>
-    <cellStyle name="适中 2" xfId="8"/>
-    <cellStyle name="输出 2" xfId="6"/>
-    <cellStyle name="输入 2" xfId="19"/>
-    <cellStyle name="注释 2" xfId="20"/>
+    <cellStyle name="常规 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="标题 1 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="标题 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="标题 3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="标题 4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="标题 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="检查单元格 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="汇总 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="注释 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="解释性文本 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="警告文本 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="计算 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="输入 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="输出 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="适中 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="链接单元格 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1976,30 +1980,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD296"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="19.5546875" style="3" customWidth="1"/>
+    <col min="1" max="2" width="19.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="20" style="3" customWidth="1"/>
     <col min="4" max="4" width="24" style="3" customWidth="1"/>
     <col min="5" max="5" width="26" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="33.77734375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="75" style="7" customWidth="1"/>
-    <col min="9" max="9" width="85.88671875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="85.33203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="74.21875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="63.21875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="109" style="7" customWidth="1"/>
+    <col min="9" max="9" width="85.85546875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="85.28515625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="74.28515625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="63.28515625" style="6" customWidth="1"/>
     <col min="13" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16384" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2025,7 +2029,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>7</v>
+        <v>369</v>
       </c>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
@@ -18403,7 +18407,7 @@
       <c r="XFC1" s="21"/>
       <c r="XFD1" s="21"/>
     </row>
-    <row r="2" spans="1:16384" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16384" ht="19.899999999999999" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>368</v>
       </c>
@@ -18436,7 +18440,7 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:16384" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16384" ht="19.899999999999999" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>368</v>
       </c>
@@ -18469,7 +18473,7 @@
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
-    <row r="4" spans="1:16384" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16384" ht="19.899999999999999" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>368</v>
       </c>
@@ -18502,7 +18506,7 @@
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="1:16384" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16384" ht="19.899999999999999" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>368</v>
       </c>
@@ -18535,7 +18539,7 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
     </row>
-    <row r="6" spans="1:16384" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16384" ht="19.899999999999999" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>368</v>
       </c>
@@ -18568,7 +18572,7 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="1:16384" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16384" ht="19.899999999999999" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>368</v>
       </c>
@@ -18601,7 +18605,7 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
     </row>
-    <row r="8" spans="1:16384" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16384" ht="19.899999999999999" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>368</v>
       </c>
@@ -18634,7 +18638,7 @@
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="1:16384" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16384" ht="19.899999999999999" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>368</v>
       </c>
@@ -18667,7 +18671,7 @@
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
     </row>
-    <row r="10" spans="1:16384" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16384" ht="19.899999999999999" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>368</v>
       </c>
@@ -18700,7 +18704,7 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:16384" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16384" ht="19.899999999999999" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>368</v>
       </c>
@@ -18733,7 +18737,7 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:16384" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16384" ht="19.899999999999999" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>368</v>
       </c>
@@ -18764,7 +18768,7 @@
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="1:16384" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16384" ht="19.899999999999999" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>368</v>
       </c>
@@ -18797,7 +18801,7 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:16384" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16384" ht="19.899999999999999" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>368</v>
       </c>
@@ -18830,7 +18834,7 @@
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
-    <row r="15" spans="1:16384" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16384" ht="19.899999999999999" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>368</v>
       </c>
@@ -18863,7 +18867,7 @@
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
     </row>
-    <row r="16" spans="1:16384" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16384" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>368</v>
       </c>
@@ -18896,7 +18900,7 @@
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
     </row>
-    <row r="17" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>368</v>
       </c>
@@ -18929,7 +18933,7 @@
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
     </row>
-    <row r="18" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>368</v>
       </c>
@@ -18962,7 +18966,7 @@
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
     </row>
-    <row r="19" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>368</v>
       </c>
@@ -18995,7 +18999,7 @@
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
     </row>
-    <row r="20" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>368</v>
       </c>
@@ -19028,7 +19032,7 @@
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
     </row>
-    <row r="21" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>368</v>
       </c>
@@ -19061,7 +19065,7 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
     </row>
-    <row r="22" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="11" t="s">
         <v>368</v>
       </c>
@@ -19094,7 +19098,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="11" t="s">
         <v>368</v>
       </c>
@@ -19127,7 +19131,7 @@
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>368</v>
       </c>
@@ -19160,7 +19164,7 @@
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>368</v>
       </c>
@@ -19193,7 +19197,7 @@
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>368</v>
       </c>
@@ -19226,7 +19230,7 @@
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
     </row>
-    <row r="27" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>368</v>
       </c>
@@ -19259,7 +19263,7 @@
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
     </row>
-    <row r="28" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>368</v>
       </c>
@@ -19292,7 +19296,7 @@
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
     </row>
-    <row r="29" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A29" s="11" t="s">
         <v>368</v>
       </c>
@@ -19325,7 +19329,7 @@
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
     </row>
-    <row r="30" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A30" s="11" t="s">
         <v>368</v>
       </c>
@@ -19358,7 +19362,7 @@
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
     </row>
-    <row r="31" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>368</v>
       </c>
@@ -19391,7 +19395,7 @@
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
     </row>
-    <row r="32" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>368</v>
       </c>
@@ -19424,7 +19428,7 @@
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
     </row>
-    <row r="33" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>368</v>
       </c>
@@ -19457,7 +19461,7 @@
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
     </row>
-    <row r="34" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A34" s="11" t="s">
         <v>368</v>
       </c>
@@ -19490,7 +19494,7 @@
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
     </row>
-    <row r="35" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A35" s="11" t="s">
         <v>368</v>
       </c>
@@ -19523,7 +19527,7 @@
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
     </row>
-    <row r="36" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A36" s="11" t="s">
         <v>368</v>
       </c>
@@ -19554,7 +19558,7 @@
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
     </row>
-    <row r="37" spans="1:12" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" s="2" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A37" s="11" t="s">
         <v>368</v>
       </c>
@@ -19587,7 +19591,7 @@
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>
     </row>
-    <row r="38" spans="1:12" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="2" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A38" s="11" t="s">
         <v>368</v>
       </c>
@@ -19620,7 +19624,7 @@
       <c r="K38" s="19"/>
       <c r="L38" s="19"/>
     </row>
-    <row r="39" spans="1:12" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" s="2" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A39" s="11" t="s">
         <v>368</v>
       </c>
@@ -19653,7 +19657,7 @@
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>
     </row>
-    <row r="40" spans="1:12" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" s="2" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A40" s="11" t="s">
         <v>368</v>
       </c>
@@ -19686,7 +19690,7 @@
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>
     </row>
-    <row r="41" spans="1:12" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" s="2" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A41" s="11" t="s">
         <v>368</v>
       </c>
@@ -19719,7 +19723,7 @@
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
     </row>
-    <row r="42" spans="1:12" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" s="2" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A42" s="11" t="s">
         <v>368</v>
       </c>
@@ -19752,7 +19756,7 @@
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
     </row>
-    <row r="43" spans="1:12" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" s="2" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A43" s="11" t="s">
         <v>368</v>
       </c>
@@ -19783,7 +19787,7 @@
       <c r="K43" s="19"/>
       <c r="L43" s="19"/>
     </row>
-    <row r="44" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A44" s="11" t="s">
         <v>368</v>
       </c>
@@ -19816,7 +19820,7 @@
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
     </row>
-    <row r="45" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A45" s="11" t="s">
         <v>368</v>
       </c>
@@ -19849,7 +19853,7 @@
       <c r="K45" s="14"/>
       <c r="L45" s="14"/>
     </row>
-    <row r="46" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A46" s="11" t="s">
         <v>368</v>
       </c>
@@ -19882,7 +19886,7 @@
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
     </row>
-    <row r="47" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A47" s="11" t="s">
         <v>368</v>
       </c>
@@ -19915,7 +19919,7 @@
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
     </row>
-    <row r="48" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A48" s="11" t="s">
         <v>368</v>
       </c>
@@ -19948,7 +19952,7 @@
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
     </row>
-    <row r="49" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A49" s="11" t="s">
         <v>368</v>
       </c>
@@ -19981,7 +19985,7 @@
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
     </row>
-    <row r="50" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A50" s="11" t="s">
         <v>368</v>
       </c>
@@ -20012,7 +20016,7 @@
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
     </row>
-    <row r="51" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A51" s="11" t="s">
         <v>368</v>
       </c>
@@ -20045,7 +20049,7 @@
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
     </row>
-    <row r="52" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A52" s="11" t="s">
         <v>368</v>
       </c>
@@ -20078,7 +20082,7 @@
       <c r="K52" s="14"/>
       <c r="L52" s="14"/>
     </row>
-    <row r="53" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A53" s="11" t="s">
         <v>368</v>
       </c>
@@ -20111,7 +20115,7 @@
       <c r="K53" s="14"/>
       <c r="L53" s="14"/>
     </row>
-    <row r="54" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A54" s="11" t="s">
         <v>368</v>
       </c>
@@ -20144,7 +20148,7 @@
       <c r="K54" s="14"/>
       <c r="L54" s="14"/>
     </row>
-    <row r="55" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A55" s="11" t="s">
         <v>368</v>
       </c>
@@ -20177,7 +20181,7 @@
       <c r="K55" s="14"/>
       <c r="L55" s="14"/>
     </row>
-    <row r="56" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A56" s="11" t="s">
         <v>368</v>
       </c>
@@ -20210,7 +20214,7 @@
       <c r="K56" s="14"/>
       <c r="L56" s="14"/>
     </row>
-    <row r="57" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A57" s="11" t="s">
         <v>368</v>
       </c>
@@ -20241,7 +20245,7 @@
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
     </row>
-    <row r="58" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A58" s="11" t="s">
         <v>368</v>
       </c>
@@ -20274,7 +20278,7 @@
       <c r="K58" s="14"/>
       <c r="L58" s="14"/>
     </row>
-    <row r="59" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A59" s="11" t="s">
         <v>368</v>
       </c>
@@ -20307,7 +20311,7 @@
       <c r="K59" s="14"/>
       <c r="L59" s="14"/>
     </row>
-    <row r="60" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A60" s="11" t="s">
         <v>368</v>
       </c>
@@ -20340,7 +20344,7 @@
       <c r="K60" s="14"/>
       <c r="L60" s="14"/>
     </row>
-    <row r="61" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A61" s="11" t="s">
         <v>368</v>
       </c>
@@ -20373,7 +20377,7 @@
       <c r="K61" s="14"/>
       <c r="L61" s="14"/>
     </row>
-    <row r="62" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A62" s="11" t="s">
         <v>368</v>
       </c>
@@ -20406,7 +20410,7 @@
       <c r="K62" s="14"/>
       <c r="L62" s="14"/>
     </row>
-    <row r="63" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A63" s="11" t="s">
         <v>368</v>
       </c>
@@ -20439,7 +20443,7 @@
       <c r="K63" s="14"/>
       <c r="L63" s="14"/>
     </row>
-    <row r="64" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A64" s="11" t="s">
         <v>368</v>
       </c>
@@ -20472,7 +20476,7 @@
       <c r="K64" s="14"/>
       <c r="L64" s="14"/>
     </row>
-    <row r="65" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A65" s="11" t="s">
         <v>368</v>
       </c>
@@ -20505,7 +20509,7 @@
       <c r="K65" s="14"/>
       <c r="L65" s="14"/>
     </row>
-    <row r="66" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A66" s="11" t="s">
         <v>368</v>
       </c>
@@ -20538,7 +20542,7 @@
       <c r="K66" s="14"/>
       <c r="L66" s="14"/>
     </row>
-    <row r="67" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A67" s="11" t="s">
         <v>368</v>
       </c>
@@ -20571,7 +20575,7 @@
       <c r="K67" s="14"/>
       <c r="L67" s="14"/>
     </row>
-    <row r="68" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A68" s="11" t="s">
         <v>368</v>
       </c>
@@ -20604,7 +20608,7 @@
       <c r="K68" s="14"/>
       <c r="L68" s="14"/>
     </row>
-    <row r="69" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A69" s="11" t="s">
         <v>368</v>
       </c>
@@ -20637,7 +20641,7 @@
       <c r="K69" s="14"/>
       <c r="L69" s="14"/>
     </row>
-    <row r="70" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A70" s="11" t="s">
         <v>368</v>
       </c>
@@ -20670,7 +20674,7 @@
       <c r="K70" s="14"/>
       <c r="L70" s="14"/>
     </row>
-    <row r="71" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A71" s="11" t="s">
         <v>368</v>
       </c>
@@ -20701,7 +20705,7 @@
       <c r="K71" s="14"/>
       <c r="L71" s="14"/>
     </row>
-    <row r="72" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A72" s="11" t="s">
         <v>368</v>
       </c>
@@ -20734,7 +20738,7 @@
       <c r="K72" s="14"/>
       <c r="L72" s="14"/>
     </row>
-    <row r="73" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A73" s="11" t="s">
         <v>368</v>
       </c>
@@ -20765,7 +20769,7 @@
       <c r="K73" s="14"/>
       <c r="L73" s="14"/>
     </row>
-    <row r="74" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A74" s="11" t="s">
         <v>368</v>
       </c>
@@ -20798,7 +20802,7 @@
       <c r="K74" s="14"/>
       <c r="L74" s="14"/>
     </row>
-    <row r="75" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A75" s="11" t="s">
         <v>368</v>
       </c>
@@ -20837,7 +20841,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A76" s="11" t="s">
         <v>368</v>
       </c>
@@ -20869,7 +20873,7 @@
       <c r="J76" s="14"/>
       <c r="L76" s="14"/>
     </row>
-    <row r="77" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A77" s="11" t="s">
         <v>368</v>
       </c>
@@ -20902,7 +20906,7 @@
       <c r="K77" s="14"/>
       <c r="L77" s="14"/>
     </row>
-    <row r="78" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A78" s="11" t="s">
         <v>368</v>
       </c>
@@ -20937,7 +20941,7 @@
       <c r="K78" s="14"/>
       <c r="L78" s="14"/>
     </row>
-    <row r="79" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A79" s="11" t="s">
         <v>368</v>
       </c>
@@ -20974,7 +20978,7 @@
       </c>
       <c r="L79" s="14"/>
     </row>
-    <row r="80" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A80" s="11" t="s">
         <v>368</v>
       </c>
@@ -21006,7 +21010,7 @@
       <c r="K80" s="14"/>
       <c r="L80" s="14"/>
     </row>
-    <row r="81" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A81" s="11" t="s">
         <v>368</v>
       </c>
@@ -21039,7 +21043,7 @@
       <c r="K81" s="14"/>
       <c r="L81" s="14"/>
     </row>
-    <row r="82" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A82" s="11" t="s">
         <v>368</v>
       </c>
@@ -21072,7 +21076,7 @@
       <c r="K82" s="14"/>
       <c r="L82" s="14"/>
     </row>
-    <row r="83" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A83" s="11" t="s">
         <v>368</v>
       </c>
@@ -21105,7 +21109,7 @@
       <c r="K83" s="14"/>
       <c r="L83" s="14"/>
     </row>
-    <row r="84" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A84" s="11" t="s">
         <v>368</v>
       </c>
@@ -21138,7 +21142,7 @@
       <c r="K84" s="14"/>
       <c r="L84" s="14"/>
     </row>
-    <row r="85" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A85" s="11" t="s">
         <v>368</v>
       </c>
@@ -21171,7 +21175,7 @@
       <c r="K85" s="14"/>
       <c r="L85" s="14"/>
     </row>
-    <row r="86" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A86" s="11" t="s">
         <v>368</v>
       </c>
@@ -21204,7 +21208,7 @@
       <c r="K86" s="14"/>
       <c r="L86" s="14"/>
     </row>
-    <row r="87" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A87" s="11" t="s">
         <v>368</v>
       </c>
@@ -21237,7 +21241,7 @@
       <c r="K87" s="14"/>
       <c r="L87" s="14"/>
     </row>
-    <row r="88" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A88" s="11" t="s">
         <v>368</v>
       </c>
@@ -21270,7 +21274,7 @@
       <c r="K88" s="14"/>
       <c r="L88" s="14"/>
     </row>
-    <row r="89" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A89" s="11" t="s">
         <v>368</v>
       </c>
@@ -21298,7 +21302,7 @@
       <c r="K89" s="14"/>
       <c r="L89" s="14"/>
     </row>
-    <row r="90" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A90" s="11" t="s">
         <v>368</v>
       </c>
@@ -21331,7 +21335,7 @@
       <c r="K90" s="14"/>
       <c r="L90" s="14"/>
     </row>
-    <row r="91" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A91" s="11" t="s">
         <v>368</v>
       </c>
@@ -21364,7 +21368,7 @@
       <c r="K91" s="14"/>
       <c r="L91" s="14"/>
     </row>
-    <row r="92" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A92" s="11" t="s">
         <v>368</v>
       </c>
@@ -21397,7 +21401,7 @@
       <c r="K92" s="14"/>
       <c r="L92" s="14"/>
     </row>
-    <row r="93" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A93" s="11" t="s">
         <v>368</v>
       </c>
@@ -21430,7 +21434,7 @@
       <c r="K93" s="14"/>
       <c r="L93" s="14"/>
     </row>
-    <row r="94" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A94" s="11" t="s">
         <v>368</v>
       </c>
@@ -21463,7 +21467,7 @@
       <c r="K94" s="14"/>
       <c r="L94" s="14"/>
     </row>
-    <row r="95" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A95" s="11" t="s">
         <v>368</v>
       </c>
@@ -21496,7 +21500,7 @@
       <c r="K95" s="14"/>
       <c r="L95" s="14"/>
     </row>
-    <row r="96" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A96" s="11" t="s">
         <v>368</v>
       </c>
@@ -21529,7 +21533,7 @@
       <c r="K96" s="14"/>
       <c r="L96" s="14"/>
     </row>
-    <row r="97" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A97" s="11" t="s">
         <v>368</v>
       </c>
@@ -21562,7 +21566,7 @@
       <c r="K97" s="14"/>
       <c r="L97" s="14"/>
     </row>
-    <row r="98" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A98" s="11" t="s">
         <v>368</v>
       </c>
@@ -21595,7 +21599,7 @@
       <c r="K98" s="14"/>
       <c r="L98" s="14"/>
     </row>
-    <row r="99" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A99" s="11" t="s">
         <v>368</v>
       </c>
@@ -21628,7 +21632,7 @@
       <c r="K99" s="14"/>
       <c r="L99" s="14"/>
     </row>
-    <row r="100" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A100" s="11" t="s">
         <v>368</v>
       </c>
@@ -21661,7 +21665,7 @@
       <c r="K100" s="14"/>
       <c r="L100" s="14"/>
     </row>
-    <row r="101" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A101" s="11" t="s">
         <v>368</v>
       </c>
@@ -21694,7 +21698,7 @@
       <c r="K101" s="14"/>
       <c r="L101" s="14"/>
     </row>
-    <row r="102" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A102" s="11" t="s">
         <v>368</v>
       </c>
@@ -21727,7 +21731,7 @@
       <c r="K102" s="14"/>
       <c r="L102" s="14"/>
     </row>
-    <row r="103" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A103" s="11" t="s">
         <v>368</v>
       </c>
@@ -21760,7 +21764,7 @@
       <c r="K103" s="14"/>
       <c r="L103" s="14"/>
     </row>
-    <row r="104" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A104" s="11" t="s">
         <v>368</v>
       </c>
@@ -21793,7 +21797,7 @@
       <c r="K104" s="14"/>
       <c r="L104" s="14"/>
     </row>
-    <row r="105" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A105" s="11" t="s">
         <v>368</v>
       </c>
@@ -21826,7 +21830,7 @@
       <c r="K105" s="14"/>
       <c r="L105" s="14"/>
     </row>
-    <row r="106" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A106" s="11" t="s">
         <v>368</v>
       </c>
@@ -21859,7 +21863,7 @@
       <c r="K106" s="14"/>
       <c r="L106" s="14"/>
     </row>
-    <row r="107" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A107" s="11" t="s">
         <v>368</v>
       </c>
@@ -21892,7 +21896,7 @@
       <c r="K107" s="14"/>
       <c r="L107" s="14"/>
     </row>
-    <row r="108" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A108" s="11" t="s">
         <v>368</v>
       </c>
@@ -21925,7 +21929,7 @@
       <c r="K108" s="14"/>
       <c r="L108" s="14"/>
     </row>
-    <row r="109" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A109" s="11" t="s">
         <v>368</v>
       </c>
@@ -21958,7 +21962,7 @@
       <c r="K109" s="14"/>
       <c r="L109" s="14"/>
     </row>
-    <row r="110" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A110" s="11" t="s">
         <v>368</v>
       </c>
@@ -21991,7 +21995,7 @@
       <c r="K110" s="14"/>
       <c r="L110" s="14"/>
     </row>
-    <row r="111" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A111" s="11" t="s">
         <v>368</v>
       </c>
@@ -22024,7 +22028,7 @@
       <c r="K111" s="14"/>
       <c r="L111" s="14"/>
     </row>
-    <row r="112" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A112" s="11" t="s">
         <v>368</v>
       </c>
@@ -22057,7 +22061,7 @@
       <c r="K112" s="14"/>
       <c r="L112" s="14"/>
     </row>
-    <row r="113" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A113" s="11" t="s">
         <v>368</v>
       </c>
@@ -22088,7 +22092,7 @@
       <c r="K113" s="14"/>
       <c r="L113" s="14"/>
     </row>
-    <row r="114" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A114" s="11" t="s">
         <v>368</v>
       </c>
@@ -22121,7 +22125,7 @@
       <c r="K114" s="14"/>
       <c r="L114" s="14"/>
     </row>
-    <row r="115" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A115" s="11" t="s">
         <v>368</v>
       </c>
@@ -22154,7 +22158,7 @@
       <c r="K115" s="14"/>
       <c r="L115" s="14"/>
     </row>
-    <row r="116" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A116" s="11" t="s">
         <v>368</v>
       </c>
@@ -22187,7 +22191,7 @@
       <c r="K116" s="14"/>
       <c r="L116" s="14"/>
     </row>
-    <row r="117" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A117" s="11" t="s">
         <v>368</v>
       </c>
@@ -22220,7 +22224,7 @@
       <c r="K117" s="14"/>
       <c r="L117" s="14"/>
     </row>
-    <row r="118" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A118" s="11" t="s">
         <v>368</v>
       </c>
@@ -22253,7 +22257,7 @@
       <c r="K118" s="14"/>
       <c r="L118" s="14"/>
     </row>
-    <row r="119" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A119" s="11" t="s">
         <v>368</v>
       </c>
@@ -22286,7 +22290,7 @@
       <c r="K119" s="14"/>
       <c r="L119" s="14"/>
     </row>
-    <row r="120" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A120" s="11" t="s">
         <v>368</v>
       </c>
@@ -22317,7 +22321,7 @@
       <c r="K120" s="14"/>
       <c r="L120" s="14"/>
     </row>
-    <row r="121" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A121" s="11" t="s">
         <v>368</v>
       </c>
@@ -22350,7 +22354,7 @@
       <c r="K121" s="14"/>
       <c r="L121" s="14"/>
     </row>
-    <row r="122" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A122" s="11" t="s">
         <v>368</v>
       </c>
@@ -22383,7 +22387,7 @@
       <c r="K122" s="14"/>
       <c r="L122" s="14"/>
     </row>
-    <row r="123" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A123" s="11" t="s">
         <v>368</v>
       </c>
@@ -22416,7 +22420,7 @@
       <c r="K123" s="14"/>
       <c r="L123" s="14"/>
     </row>
-    <row r="124" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A124" s="11" t="s">
         <v>368</v>
       </c>
@@ -22449,7 +22453,7 @@
       <c r="K124" s="14"/>
       <c r="L124" s="14"/>
     </row>
-    <row r="125" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A125" s="11" t="s">
         <v>368</v>
       </c>
@@ -22482,7 +22486,7 @@
       <c r="K125" s="14"/>
       <c r="L125" s="14"/>
     </row>
-    <row r="126" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A126" s="11" t="s">
         <v>368</v>
       </c>
@@ -22515,7 +22519,7 @@
       <c r="K126" s="14"/>
       <c r="L126" s="14"/>
     </row>
-    <row r="127" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A127" s="11" t="s">
         <v>368</v>
       </c>
@@ -22546,7 +22550,7 @@
       <c r="K127" s="14"/>
       <c r="L127" s="14"/>
     </row>
-    <row r="128" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A128" s="11" t="s">
         <v>368</v>
       </c>
@@ -22579,7 +22583,7 @@
       <c r="K128" s="14"/>
       <c r="L128" s="14"/>
     </row>
-    <row r="129" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A129" s="11" t="s">
         <v>368</v>
       </c>
@@ -22612,7 +22616,7 @@
       <c r="K129" s="14"/>
       <c r="L129" s="14"/>
     </row>
-    <row r="130" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A130" s="11" t="s">
         <v>368</v>
       </c>
@@ -22645,7 +22649,7 @@
       <c r="K130" s="14"/>
       <c r="L130" s="14"/>
     </row>
-    <row r="131" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A131" s="11" t="s">
         <v>368</v>
       </c>
@@ -22678,7 +22682,7 @@
       <c r="K131" s="14"/>
       <c r="L131" s="14"/>
     </row>
-    <row r="132" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A132" s="11" t="s">
         <v>368</v>
       </c>
@@ -22711,7 +22715,7 @@
       <c r="K132" s="14"/>
       <c r="L132" s="14"/>
     </row>
-    <row r="133" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A133" s="11" t="s">
         <v>368</v>
       </c>
@@ -22744,7 +22748,7 @@
       <c r="K133" s="14"/>
       <c r="L133" s="14"/>
     </row>
-    <row r="134" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A134" s="11" t="s">
         <v>368</v>
       </c>
@@ -22775,7 +22779,7 @@
       <c r="K134" s="14"/>
       <c r="L134" s="14"/>
     </row>
-    <row r="135" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A135" s="11" t="s">
         <v>368</v>
       </c>
@@ -22808,7 +22812,7 @@
       <c r="K135" s="14"/>
       <c r="L135" s="14"/>
     </row>
-    <row r="136" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A136" s="11" t="s">
         <v>368</v>
       </c>
@@ -22841,7 +22845,7 @@
       <c r="K136" s="14"/>
       <c r="L136" s="14"/>
     </row>
-    <row r="137" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A137" s="11" t="s">
         <v>368</v>
       </c>
@@ -22874,7 +22878,7 @@
       <c r="K137" s="14"/>
       <c r="L137" s="14"/>
     </row>
-    <row r="138" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A138" s="11" t="s">
         <v>368</v>
       </c>
@@ -22907,7 +22911,7 @@
       <c r="K138" s="14"/>
       <c r="L138" s="14"/>
     </row>
-    <row r="139" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A139" s="11" t="s">
         <v>368</v>
       </c>
@@ -22940,7 +22944,7 @@
       <c r="K139" s="14"/>
       <c r="L139" s="14"/>
     </row>
-    <row r="140" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A140" s="11" t="s">
         <v>368</v>
       </c>
@@ -22973,7 +22977,7 @@
       <c r="K140" s="14"/>
       <c r="L140" s="14"/>
     </row>
-    <row r="141" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A141" s="11" t="s">
         <v>368</v>
       </c>
@@ -23006,7 +23010,7 @@
       <c r="K141" s="14"/>
       <c r="L141" s="14"/>
     </row>
-    <row r="142" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A142" s="11" t="s">
         <v>368</v>
       </c>
@@ -23039,7 +23043,7 @@
       <c r="K142" s="14"/>
       <c r="L142" s="14"/>
     </row>
-    <row r="143" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A143" s="11" t="s">
         <v>368</v>
       </c>
@@ -23072,7 +23076,7 @@
       <c r="K143" s="14"/>
       <c r="L143" s="14"/>
     </row>
-    <row r="144" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A144" s="11" t="s">
         <v>368</v>
       </c>
@@ -23105,7 +23109,7 @@
       <c r="K144" s="14"/>
       <c r="L144" s="14"/>
     </row>
-    <row r="145" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A145" s="11" t="s">
         <v>368</v>
       </c>
@@ -23138,7 +23142,7 @@
       <c r="K145" s="14"/>
       <c r="L145" s="14"/>
     </row>
-    <row r="146" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A146" s="11" t="s">
         <v>368</v>
       </c>
@@ -23171,7 +23175,7 @@
       <c r="K146" s="14"/>
       <c r="L146" s="14"/>
     </row>
-    <row r="147" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A147" s="11" t="s">
         <v>368</v>
       </c>
@@ -23204,7 +23208,7 @@
       <c r="K147" s="14"/>
       <c r="L147" s="14"/>
     </row>
-    <row r="148" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A148" s="11" t="s">
         <v>368</v>
       </c>
@@ -23235,7 +23239,7 @@
       <c r="K148" s="14"/>
       <c r="L148" s="14"/>
     </row>
-    <row r="149" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A149" s="11" t="s">
         <v>368</v>
       </c>
@@ -23268,7 +23272,7 @@
       <c r="K149" s="14"/>
       <c r="L149" s="14"/>
     </row>
-    <row r="150" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A150" s="11" t="s">
         <v>368</v>
       </c>
@@ -23299,7 +23303,7 @@
       <c r="K150" s="14"/>
       <c r="L150" s="14"/>
     </row>
-    <row r="151" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A151" s="11" t="s">
         <v>368</v>
       </c>
@@ -23332,7 +23336,7 @@
       <c r="K151" s="14"/>
       <c r="L151" s="14"/>
     </row>
-    <row r="152" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A152" s="11" t="s">
         <v>368</v>
       </c>
@@ -23371,7 +23375,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A153" s="11" t="s">
         <v>368</v>
       </c>
@@ -23403,7 +23407,7 @@
       <c r="J153" s="14"/>
       <c r="L153" s="14"/>
     </row>
-    <row r="154" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A154" s="11" t="s">
         <v>368</v>
       </c>
@@ -23436,7 +23440,7 @@
       <c r="K154" s="14"/>
       <c r="L154" s="14"/>
     </row>
-    <row r="155" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A155" s="11" t="s">
         <v>368</v>
       </c>
@@ -23471,7 +23475,7 @@
       <c r="K155" s="14"/>
       <c r="L155" s="14"/>
     </row>
-    <row r="156" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A156" s="11" t="s">
         <v>368</v>
       </c>
@@ -23508,418 +23512,418 @@
       </c>
       <c r="L156" s="14"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12">
       <c r="J157" s="14"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12">
       <c r="J158" s="14"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12">
       <c r="J159" s="14"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12">
       <c r="J160" s="14"/>
     </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="10:10">
       <c r="J161" s="14"/>
     </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="10:10">
       <c r="J162" s="14"/>
     </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="10:10">
       <c r="J163" s="14"/>
     </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="10:10">
       <c r="J164" s="14"/>
     </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="10:10">
       <c r="J165" s="14"/>
     </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="10:10">
       <c r="J166" s="14"/>
     </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="10:10">
       <c r="J167" s="14"/>
     </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="10:10">
       <c r="J168" s="14"/>
     </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="10:10">
       <c r="J169" s="14"/>
     </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="10:10">
       <c r="J170" s="14"/>
     </row>
-    <row r="171" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="10:10">
       <c r="J171" s="14"/>
     </row>
-    <row r="172" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="10:10">
       <c r="J172" s="14"/>
     </row>
-    <row r="173" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="10:10">
       <c r="J173" s="14"/>
     </row>
-    <row r="174" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="10:10">
       <c r="J174" s="14"/>
     </row>
-    <row r="175" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="10:10">
       <c r="J175" s="14"/>
     </row>
-    <row r="176" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="10:10">
       <c r="J176" s="14"/>
     </row>
-    <row r="177" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="10:10">
       <c r="J177" s="14"/>
     </row>
-    <row r="178" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="10:10">
       <c r="J178" s="14"/>
     </row>
-    <row r="179" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="10:10">
       <c r="J179" s="14"/>
     </row>
-    <row r="180" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="10:10">
       <c r="J180" s="14"/>
     </row>
-    <row r="181" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="10:10">
       <c r="J181" s="14"/>
     </row>
-    <row r="182" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="10:10">
       <c r="J182" s="14"/>
     </row>
-    <row r="183" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="10:10">
       <c r="J183" s="14"/>
     </row>
-    <row r="184" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="10:10">
       <c r="J184" s="14"/>
     </row>
-    <row r="185" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="10:10">
       <c r="J185" s="14"/>
     </row>
-    <row r="186" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="10:10">
       <c r="J186" s="14"/>
     </row>
-    <row r="187" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="10:10">
       <c r="J187" s="14"/>
     </row>
-    <row r="188" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="10:10">
       <c r="J188" s="14"/>
     </row>
-    <row r="189" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="10:10">
       <c r="J189" s="14"/>
     </row>
-    <row r="190" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="10:10">
       <c r="J190" s="14"/>
     </row>
-    <row r="191" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="10:10">
       <c r="J191" s="14"/>
     </row>
-    <row r="192" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="10:10">
       <c r="J192" s="14"/>
     </row>
-    <row r="193" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="10:10">
       <c r="J193" s="14"/>
     </row>
-    <row r="194" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="10:10">
       <c r="J194" s="14"/>
     </row>
-    <row r="195" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="10:10">
       <c r="J195" s="14"/>
     </row>
-    <row r="196" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="10:10">
       <c r="J196" s="14"/>
     </row>
-    <row r="197" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="10:10">
       <c r="J197" s="14"/>
     </row>
-    <row r="198" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="10:10">
       <c r="J198" s="14"/>
     </row>
-    <row r="199" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="10:10">
       <c r="J199" s="14"/>
     </row>
-    <row r="200" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="10:10">
       <c r="J200" s="14"/>
     </row>
-    <row r="201" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="10:10">
       <c r="J201" s="14"/>
     </row>
-    <row r="202" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="10:10">
       <c r="J202" s="14"/>
     </row>
-    <row r="203" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="10:10">
       <c r="J203" s="14"/>
     </row>
-    <row r="204" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="10:10">
       <c r="J204" s="14"/>
     </row>
-    <row r="205" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="10:10">
       <c r="J205" s="14"/>
     </row>
-    <row r="206" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="10:10">
       <c r="J206" s="14"/>
     </row>
-    <row r="207" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="10:10">
       <c r="J207" s="14"/>
     </row>
-    <row r="208" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="10:10">
       <c r="J208" s="14"/>
     </row>
-    <row r="209" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="10:10">
       <c r="J209" s="14"/>
     </row>
-    <row r="210" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="10:10">
       <c r="J210" s="14"/>
     </row>
-    <row r="211" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="10:10">
       <c r="J211" s="14"/>
     </row>
-    <row r="212" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="10:10">
       <c r="J212" s="14"/>
     </row>
-    <row r="213" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="10:10">
       <c r="J213" s="14"/>
     </row>
-    <row r="214" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="10:10">
       <c r="J214" s="14"/>
     </row>
-    <row r="215" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="10:10">
       <c r="J215" s="14"/>
     </row>
-    <row r="217" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="10:10">
       <c r="J217" s="14"/>
     </row>
-    <row r="218" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="10:10">
       <c r="J218" s="14"/>
     </row>
-    <row r="220" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="10:10">
       <c r="J220" s="14"/>
     </row>
-    <row r="221" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="10:10">
       <c r="J221" s="14"/>
     </row>
-    <row r="222" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="10:10">
       <c r="J222" s="14"/>
     </row>
-    <row r="223" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="10:10">
       <c r="J223" s="14"/>
     </row>
-    <row r="224" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="10:10">
       <c r="J224" s="14"/>
     </row>
-    <row r="225" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="10:10">
       <c r="J225" s="14"/>
     </row>
-    <row r="226" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="10:10">
       <c r="J226" s="14"/>
     </row>
-    <row r="227" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="10:10">
       <c r="J227" s="14"/>
     </row>
-    <row r="228" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="10:10">
       <c r="J228" s="14"/>
     </row>
-    <row r="229" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="10:10">
       <c r="J229" s="14"/>
     </row>
-    <row r="230" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="10:10">
       <c r="J230" s="14"/>
     </row>
-    <row r="231" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="10:10">
       <c r="J231" s="14"/>
     </row>
-    <row r="232" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="10:10">
       <c r="J232" s="14"/>
     </row>
-    <row r="233" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="10:10">
       <c r="J233" s="14"/>
     </row>
-    <row r="234" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="10:10">
       <c r="J234" s="14"/>
     </row>
-    <row r="235" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="10:10">
       <c r="J235" s="14"/>
     </row>
-    <row r="236" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="10:10">
       <c r="J236" s="14"/>
     </row>
-    <row r="237" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="10:10">
       <c r="J237" s="14"/>
     </row>
-    <row r="238" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="10:10">
       <c r="J238" s="14"/>
     </row>
-    <row r="239" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="10:10">
       <c r="J239" s="14"/>
     </row>
-    <row r="240" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="10:10">
       <c r="J240" s="14"/>
     </row>
-    <row r="241" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="10:10">
       <c r="J241" s="14"/>
     </row>
-    <row r="242" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="10:10">
       <c r="J242" s="14"/>
     </row>
-    <row r="243" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="10:10">
       <c r="J243" s="14"/>
     </row>
-    <row r="244" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="10:10">
       <c r="J244" s="14"/>
     </row>
-    <row r="245" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="10:10">
       <c r="J245" s="14"/>
     </row>
-    <row r="246" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="10:10">
       <c r="J246" s="14"/>
     </row>
-    <row r="247" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="10:10">
       <c r="J247" s="14"/>
     </row>
-    <row r="248" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="10:10">
       <c r="J248" s="14"/>
     </row>
-    <row r="249" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="10:10">
       <c r="J249" s="14"/>
     </row>
-    <row r="250" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="10:10">
       <c r="J250" s="14"/>
     </row>
-    <row r="251" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="10:10">
       <c r="J251" s="14"/>
     </row>
-    <row r="252" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="10:10">
       <c r="J252" s="14"/>
     </row>
-    <row r="253" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="10:10">
       <c r="J253" s="14"/>
     </row>
-    <row r="254" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="10:10">
       <c r="J254" s="14"/>
     </row>
-    <row r="255" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="10:10">
       <c r="J255" s="14"/>
     </row>
-    <row r="256" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="10:10">
       <c r="J256" s="14"/>
     </row>
-    <row r="257" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="10:10">
       <c r="J257" s="14"/>
     </row>
-    <row r="258" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="10:10">
       <c r="J258" s="14"/>
     </row>
-    <row r="259" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="10:10">
       <c r="J259" s="14"/>
     </row>
-    <row r="260" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="10:10">
       <c r="J260" s="14"/>
     </row>
-    <row r="261" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="10:10">
       <c r="J261" s="14"/>
     </row>
-    <row r="262" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="10:10">
       <c r="J262" s="14"/>
     </row>
-    <row r="263" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="10:10">
       <c r="J263" s="14"/>
     </row>
-    <row r="264" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="10:10">
       <c r="J264" s="14"/>
     </row>
-    <row r="265" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="10:10">
       <c r="J265" s="14"/>
     </row>
-    <row r="266" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="10:10">
       <c r="J266" s="14"/>
     </row>
-    <row r="267" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="10:10">
       <c r="J267" s="14"/>
     </row>
-    <row r="268" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="10:10">
       <c r="J268" s="14"/>
     </row>
-    <row r="269" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="10:10">
       <c r="J269" s="14"/>
     </row>
-    <row r="270" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="10:10">
       <c r="J270" s="14"/>
     </row>
-    <row r="271" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="10:10">
       <c r="J271" s="14"/>
     </row>
-    <row r="272" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="10:10">
       <c r="J272" s="14"/>
     </row>
-    <row r="273" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="10:10">
       <c r="J273" s="14"/>
     </row>
-    <row r="274" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="10:10">
       <c r="J274" s="14"/>
     </row>
-    <row r="275" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="10:10">
       <c r="J275" s="14"/>
     </row>
-    <row r="276" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="10:10">
       <c r="J276" s="14"/>
     </row>
-    <row r="277" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="10:10">
       <c r="J277" s="14"/>
     </row>
-    <row r="278" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="10:10">
       <c r="J278" s="14"/>
     </row>
-    <row r="279" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="10:10">
       <c r="J279" s="14"/>
     </row>
-    <row r="280" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="10:10">
       <c r="J280" s="14"/>
     </row>
-    <row r="281" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="10:10">
       <c r="J281" s="14"/>
     </row>
-    <row r="282" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="10:10">
       <c r="J282" s="14"/>
     </row>
-    <row r="283" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="10:10">
       <c r="J283" s="14"/>
     </row>
-    <row r="284" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="10:10">
       <c r="J284" s="14"/>
     </row>
-    <row r="285" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="10:10">
       <c r="J285" s="14"/>
     </row>
-    <row r="286" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="10:10">
       <c r="J286" s="14"/>
     </row>
-    <row r="287" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="10:10">
       <c r="J287" s="14"/>
     </row>
-    <row r="288" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="10:10">
       <c r="J288" s="14"/>
     </row>
-    <row r="289" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="10:10">
       <c r="J289" s="14"/>
     </row>
-    <row r="290" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="10:10">
       <c r="J290" s="14"/>
     </row>
-    <row r="291" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="10:10">
       <c r="J291" s="14"/>
     </row>
-    <row r="292" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="10:10">
       <c r="J292" s="14"/>
     </row>
-    <row r="293" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="10:10">
       <c r="J293" s="14"/>
     </row>
-    <row r="294" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="10:10">
       <c r="J294" s="14"/>
     </row>
-    <row r="295" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="10:10">
       <c r="J295" s="14"/>
     </row>
-    <row r="296" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="10:10">
       <c r="J296" s="14"/>
     </row>
   </sheetData>
@@ -23930,12 +23934,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23944,12 +23948,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
